--- a/player profiles streamlit.xlsx
+++ b/player profiles streamlit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/557e8c8e9b1f0372/Documents/WT Analysis/Excel Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{536941B2-4F92-4A09-A523-BB43FD890449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28FE9D04-FFAB-4F4D-8712-3CF4B83F84D2}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{536941B2-4F92-4A09-A523-BB43FD890449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCAD6CAA-E679-4769-B99A-9C284BF19C00}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49F3271B-38F6-4BE5-8AB1-A0922BDBD728}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="129">
   <si>
     <t>pass_completion</t>
   </si>
@@ -329,12 +329,6 @@
     <t>LB</t>
   </si>
   <si>
-    <t>Destroyer/Disruptor</t>
-  </si>
-  <si>
-    <t>All Action Midfielder</t>
-  </si>
-  <si>
     <t>Box Crasher</t>
   </si>
   <si>
@@ -353,9 +347,6 @@
     <t>Scorer</t>
   </si>
   <si>
-    <t>Creator</t>
-  </si>
-  <si>
     <t>Carrier</t>
   </si>
   <si>
@@ -429,6 +420,12 @@
   </si>
   <si>
     <t>LW</t>
+  </si>
+  <si>
+    <t>All Action</t>
+  </si>
+  <si>
+    <t>Disruptor</t>
   </si>
 </sst>
 </file>
@@ -544,6 +541,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -865,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FACFA0-310E-4952-A0A5-9DC7E2830FC8}">
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -894,7 +895,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>75</v>
@@ -953,7 +954,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>76</v>
@@ -1013,7 +1014,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>77</v>
@@ -1073,7 +1074,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>78</v>
@@ -1133,7 +1134,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>89</v>
@@ -1193,7 +1194,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>76</v>
@@ -1253,7 +1254,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>77</v>
@@ -1313,7 +1314,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>78</v>
@@ -1373,7 +1374,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>89</v>
@@ -1673,7 +1674,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>93</v>
@@ -1733,7 +1734,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>91</v>
@@ -1793,7 +1794,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>92</v>
@@ -1853,7 +1854,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>94</v>
@@ -2153,7 +2154,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>93</v>
@@ -2213,7 +2214,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>91</v>
@@ -2273,7 +2274,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>92</v>
@@ -2333,7 +2334,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>94</v>
@@ -2393,10 +2394,10 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>58</v>
@@ -2453,10 +2454,10 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>57</v>
@@ -2513,10 +2514,10 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>56</v>
@@ -2573,10 +2574,10 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
@@ -2633,10 +2634,10 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
@@ -2693,10 +2694,10 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>58</v>
@@ -2753,10 +2754,10 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>57</v>
@@ -2813,10 +2814,10 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>56</v>
@@ -2873,10 +2874,10 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>19</v>
@@ -2933,10 +2934,10 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
@@ -2993,10 +2994,10 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>58</v>
@@ -3053,10 +3054,10 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>57</v>
@@ -3113,10 +3114,10 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>56</v>
@@ -3173,10 +3174,10 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>19</v>
@@ -3233,10 +3234,10 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
@@ -3293,10 +3294,10 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>58</v>
@@ -3353,10 +3354,10 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>57</v>
@@ -3413,10 +3414,10 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>56</v>
@@ -3473,10 +3474,10 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>19</v>
@@ -3533,10 +3534,10 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
@@ -3593,10 +3594,10 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>19</v>
@@ -3653,10 +3654,10 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>49</v>
@@ -3713,10 +3714,10 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>5</v>
@@ -3773,10 +3774,10 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
@@ -3833,10 +3834,10 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
@@ -3893,10 +3894,10 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>49</v>
@@ -3953,10 +3954,10 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>5</v>
@@ -4013,10 +4014,10 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -4073,10 +4074,10 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
@@ -4133,10 +4134,10 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>56</v>
@@ -4193,10 +4194,10 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>5</v>
@@ -4253,10 +4254,10 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>56</v>
@@ -4313,10 +4314,10 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -4373,10 +4374,10 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>56</v>
@@ -4433,10 +4434,10 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>5</v>
@@ -4493,10 +4494,10 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>56</v>
@@ -4553,10 +4554,10 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>28</v>
@@ -4613,10 +4614,10 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>49</v>
@@ -4673,10 +4674,10 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1</v>
@@ -4733,10 +4734,10 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>5</v>
@@ -4793,10 +4794,10 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -4853,10 +4854,10 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>28</v>
@@ -4913,10 +4914,10 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>49</v>
@@ -4973,10 +4974,10 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1</v>
@@ -5033,10 +5034,10 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>5</v>
@@ -5093,10 +5094,10 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -5559,12 +5560,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -5574,7 +5575,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -5584,57 +5585,57 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5657,22 +5658,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -5682,27 +5683,27 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -5712,27 +5713,27 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
